--- a/biology/Botanique/Aechmea_paniculigera/Aechmea_paniculigera.xlsx
+++ b/biology/Botanique/Aechmea_paniculigera/Aechmea_paniculigera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea paniculigera est une espèce de plantes à fleurs de la famille des Bromeliaceae qui se rencontre en Colombie, en Jamaïque et au Venezuela.
 </t>
@@ -511,16 +523,18 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aechmea chromatica C.H.Wright[1] ;
-Aechmea columnaris André[1] ;
-Aechmea latifolia (Willd. ex Schult. &amp; Schult.f.) Klotzsch ex Baker [non-valide][1] ;
-Bromelia latifolia Willd. ex Schult. &amp; Schult.f.[1] ;
-Bromelia paniculata J.F.Gmel.[1] ;
-Bromelia paniculigera Sw.[1]  mais Bromelia paniculigera Rchb. est synonyme de Aechmea aquilega (Salisb.) Griseb.[2] ;
-Hohenbergia paniculigera (Sw.) Baker[1].
+Aechmea chromatica C.H.Wright ;
+Aechmea columnaris André ;
+Aechmea latifolia (Willd. ex Schult. &amp; Schult.f.) Klotzsch ex Baker [non-valide] ;
+Bromelia latifolia Willd. ex Schult. &amp; Schult.f. ;
+Bromelia paniculata J.F.Gmel. ;
+Bromelia paniculigera Sw.  mais Bromelia paniculigera Rchb. est synonyme de Aechmea aquilega (Salisb.) Griseb. ;
+Hohenbergia paniculigera (Sw.) Baker.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans les Caraïbes en Jamaïque, et au nord-ouest de l'Amérique du Sud, en Colombie et au Venezuela[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans les Caraïbes en Jamaïque, et au nord-ouest de l'Amérique du Sud, en Colombie et au Venezuela.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte ou rupicole[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte ou rupicole.
 </t>
         </is>
       </c>
